--- a/graph_generation/results_prelim/gpt3.5/level_4/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_4/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -28,112 +30,245 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 what is the least cost path from node A to node J?
-   A B C D E F G H I J K L M
- A 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 5 0 0 0 0 0 0 1 0 1
- C 0 2 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 2 2 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 4 2 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0
- H 0 0 0 0 0 2 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 2
- M 0 1 0 0 0 0 0 0 0 0 0 2 0
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ E 0 0 0 1 0 3 2 0 0 0 0 0 0 0 0 0 0 0 3
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 4
+ I 0 0 0 0 0 0 0 1 0 4 5 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
+ R 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ S 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; D -&gt; F -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm.
-1. Initialize an array 'distances' to keep track of the minimum distances from node A to each node. Set the distance of all nodes to infinity initially, except for node A which is set to 0.
-   distances = [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. Initialize an array 'visited' to keep track of the visited nodes. Set all nodes to False initially.
-   visited = [False, False, False, False, False, False, False, False, False, False, False, False, False]
-3. While there are unvisited nodes:
-   a. Find the node with the minimum distance from node A among the unvisited nodes. Let's call this node 'current'.
-   b. Mark 'current' as visited.
-   c. Update the distances of the neighboring nodes of 'current' if the new distance is smaller than the current distance.
-4. Repeat step 3 until all nodes are visited or until the distance to node J is updated.
-Using the given adjacency matrix, we can perform the following steps:
-Step 1:
-distances = [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Step 2:
-visited = [False, False, False, False, False, False, False, False, False, False, False, False, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node B with a distance of 3. So 'current' = B.
-b. Mark B as visited.
-c. Update the distances of the neighboring nodes of B if the new distance is smaller than the current distance.
-   - The distance from A to C through B is 3 + 2 = 5, which is smaller than the current distance of infinity. Update distances[C] = 5.
-   - The distance from A to D through B is 3 + 5 = 8, which is smaller than the current distance of infinity. Update distances[D] = 8.
-   - The distance from A to K through B is 3 + 1 = 4, which is smaller than the current distance of infinity. Update distances[K] = 4.
-   - The distance from A to M through B is 3 + 1 = 4, which is smaller than the current distance of infinity. Update distances[M] = 4.
-distances = [0, 3, 5, 8, infinity, infinity, infinity, infinity, infinity, infinity, 4, infinity, 4]
-visited = [False, True, False, False, False, False, False, False, False, False, False, False, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node K with a distance of 4. So 'current' = K.
-b. Mark K as visited.
-c. Update the distances of the neighboring nodes of K if the new distance is smaller than the current distance.
-   - The distance from A to E through K is 4 + 0 = 4, which is smaller than the current distance of infinity. Update distances[E] = 4.
-   - The distance from A to L through K is 4 + 3 = 7, which is smaller than the current distance of infinity. Update distances[L] = 7.
-distances = [0, 3, 5, 8, 4, infinity, infinity, infinity, infinity, infinity, 4, 7, 4]
-visited = [False, True, False, False, False, True, False, False, False, False, True, False, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node M with a distance of 4. So 'current' = M.
-b. Mark M as visited.
-c. Update the distances of the neighboring nodes of M if the new distance is smaller than the current distance.
-   - The distance from A to K through M is 4 + 1 = 5, which is smaller than the current distance of 4. Update distances[K] = 5.
-distances = [0, 3, 5, 8, 4, infinity, infinity, infinity, infinity, infinity, 5, 7, 4]
-visited = [False, True, False, False, False, True, False, False, False, False, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node E with a distance of 4. So 'current' = E.
-b. Mark E as visited.
-c. Update the distances of the neighboring nodes of E if the new distance is smaller than the current distance.
-   - The distance from A to D through E is 4 + 2 = 6, which is smaller than the current distance of 8. Update distances[D] = 6.
-distances = [0, 3, 5, 6, 4, 4, infinity, infinity, infinity, infinity, 5, 7, 4]
-visited = [False, True, False, False, True, True, False, False, False, False, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node D with a distance of 6. So 'current' = D.
-b. Mark D as visited.
-c. Update the distances of the neighboring nodes of D if the new distance is smaller than the current distance.
-   - The distance from A to F through D is 6 + 2 = 8, which is smaller than the current distance of infinity. Update distances[F] = 8.
-   - The distance from A to G through D is 6 + 2 = 8, which is smaller than the current distance of infinity. Update distances[G] = 8.
-distances = [0, 3, 5, 6, 4, 4, 8, 8, infinity, infinity, 5, 7, 4]
-visited = [False, True, False, True, True, True, False, False, False, False, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node F with a distance of 8. So 'current' = F.
-b. Mark F as visited.
-c. Update the distances of the neighboring nodes of F if the new distance is smaller than the current distance.
-   - The distance from A to H through F is 8 + 2 = 10, which is smaller than the current distance of infinity. Update distances[H] = 10.
-distances = [0, 3, 5, 6, 4, 4, 8, 8, 10, infinity, 5, 7, 4]
-visited = [False, True, False, True, True, True, False, False, True, False, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node H with a distance of 10. So 'current' = H.
-b. Mark H as visited.
-c. Update the distances of the neighboring nodes of H if the new distance is smaller than the current distance.
-   - The distance from A to I through H is 10 + 5 = 15, which is smaller than the current distance of infinity. Update distances[I] = 15.
-distances = [0, 3, 5, 6, 4, 4, 8, 8, 10, 15, 5, 7, 4]
-visited = [False, True, False, True, True, True, False, True, True, False, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node I with a distance of 15. So 'current' = I.
-b. Mark I as visited.
-c. Update the distances of the neighboring nodes of I if the new distance is smaller than the current distance.
-   - The distance from A to J through I is 15 + 1 = 16, which is smaller than the current distance of infinity. Update distances[J] = 16.
-distances = [0, 3, 5, 6, 4, 4, 8, 8, 10, 15, 5, 7, 4]
-visited = [False, True, False, True, True, True, False, True, True, True, True, True, False]
-Step 3:
-a. The node with the minimum distance from node A among the unvisited nodes is node J with a distance of 16. So 'current' = J.
-b. Mark J as visited.
-Since all nodes are visited, we have found the least cost path from node A to node J. The distance from A to J is 16.
-Therefore, the least cost path from node A to node J is A - B - K - I - J, with a total cost of 16.</t>
+    <t>A -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node J, you can use Dijkstra's algorithm. Here are the steps:
+1. Initialize a list of distances for each node, starting with infinity for all nodes except A, which is 0. Initialize an empty list of visited nodes.
+2. While J is not in the visited nodes:
+   a. Find the node with the smallest distance from the list of distances that is not in the visited nodes.
+   b. Mark this node as visited.
+   c. For each adjacent node to the current node that is not in the visited nodes, calculate the new distance as the sum of the current distance to the node and the cost of travelling between the two nodes.
+   d. If this new distance is smaller than the current distance for the adjacent node, update the distance.
+3. Once J is in the visited nodes, backtrack from J to A using the distances and the adjacency matrix to find the least cost path.
+Using this algorithm, the least cost path from node A to node J is: A -&gt; C -&gt; D -&gt; E -&gt; J, with a total cost of 9.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 4 1 0 0 0 0 0 0 0 0 2
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 5 0 5 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 3 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ U 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; I -&gt; J -&gt; L -&gt; O -&gt; P -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node T, we can use the Dijkstra's algorithm.
+Here are the steps:
+1. Create a set of unvisited nodes and initialize it with all the nodes.
+2. Set the cost of node A to 0 and all other nodes to infinity.
+3. Set the previous node of node A to null and all other nodes to undefined.
+4. While there are still unvisited nodes:
+   a. Find the node with the minimum cost from the set of unvisited nodes.
+   b. Mark this node as visited by removing it from the set of unvisited nodes.
+   c. For each neighbor of the current node that is still in the set of unvisited nodes:
+      - Calculate the cost of reaching the neighbor from the current node.
+      - If this cost is less than the current cost of the neighbor, update the cost and set the previous node of the neighbor to the current node.
+5. Trace back the path from node T to node A using the previous nodes.
+Let's apply these steps to find the least cost path from node A to node T:
+Step 1: Create a set of unvisited nodes with all the nodes from A to U.
+Unvisited nodes: {A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U}
+Step 2: Set the cost of node A to 0 and all other nodes to infinity.
+Cost: {A: 0, B: inf, C: inf, D: inf, E: inf, F: inf, G: inf, H: inf, I: inf, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Step 3: Set the previous node of node A to null and all other nodes to undefined.
+Previous: {A: null, B: undefined, C: undefined, D: undefined, E: undefined, F: undefined, G: undefined, H: undefined, I: undefined, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Step 4: While there are still unvisited nodes, find the node with the minimum cost.
+Iteration 1:
+- Current node: A
+- Neighbors: B (cost: 5)
+- Update neighbor B's cost to 5 and previous node to A.
+Cost: {A: 0, B: 5, C: inf, D: inf, E: inf, F: inf, G: inf, H: inf, I: inf, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: undefined, D: undefined, E: undefined, F: undefined, G: undefined, H: undefined, I: undefined, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 2:
+- Current node: B
+- Neighbors: C (cost: 4), E (cost: 2), I (cost: 1)
+- Update neighbor C's cost to 9 and previous node to B.
+- Update neighbor E's cost to 7 and previous node to B.
+- Update neighbor I's cost to 6 and previous node to B.
+Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: inf, G: inf, H: inf, I: 6, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: undefined, E: B, F: undefined, G: undefined, H: undefined, I: B, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 3:
+- Current node: I
+- Neighbors: J (cost: 4)
+- Update neighbor J's cost to 10 and previous node to I.
+Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: inf, G: inf, H: inf, I: 6, J: 10, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: undefined, E: B, F: undefined, G: undefined, H: undefined, I: B, J: I, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 4:
+- Current node: E
+- Neighbors: F (cost: 4), J (cost: 1)
+- Update neighbor J's cost to 8 and previous node to E.
+Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 11, G: inf, H: inf, I: 6, J: 8, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: undefined, E: B, F: E, G: undefined, H: undefined, I: B, J: E, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 5:
+- Current node: J
+- Neighbors: F (cost: 1), K (cost: 4)
+- Update neighbor F's cost to 9 and previous node to J.
+Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 9, G: inf, H: inf, I: 6, J: 8, K: 12, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: undefined, E: B, F: J, G: undefined, H: undefined, I: B, J: E, K: J, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 6:
+- Current node: F
+- Neighbors: G (cost: 4), L (cost: 5)
+- Update neighbor G's cost to 13 and previous node to F.
+- Update neighbor L's cost to 14 and previous node to F.
+Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 9, G: 13, H: inf, I: 6, J: 8, K: 12, L: 14, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: undefined, E: B, F: J, G: F, H: undefined, I: B, J: E, K: J, L: F, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 7:
+- Current node: G
+- Neighbors: D (cost: 5), H (cost: 5), M (cost: 2)
+- Update neighbor D's cost to 18 and previous node to G.
+- Update neighbor H's cost to 14 and previous node to G.
+- Update neighbor M's cost to 15 and previous node to G.
+Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 8:
+- Current node: I
+- Neighbors: J (cost: 4)
+- No updates since the current cost of neighbor J is still less than the calculated cost.
+Iteration 9:
+- Current node: J
+- Neighbors: F (cost: 1), K (cost: 4)
+- No updates since the current cost of neighbor F is still less than the calculated cost.
+Iteration 10:
+- Current node: K
+- Neighbors: J (cost: 4)
+- No updates since the current cost of neighbor J is still less than the calculated cost.
+Iteration 11:
+- Current node: L
+- Neighbors: K (cost: 5)
+- Update neighbor K's cost to 19 and previous node to L.
+Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 12:
+- Current node: M
+- Neighbors: N (cost: 2)
+- Update neighbor N's cost to 17 and previous node to M.
+Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: 17, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: M, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
+Iteration 13:
+- Current node: N
+- Neighbors: O (cost: 5), S (cost: 5)
+- Update neighbor O's cost to 22 and previous node to N.
+- Update neighbor S's cost to 20 and previous node to N.
+Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: 17, O: 22, P: inf, Q: inf, R: inf, S: 20, T: inf, U: inf}
+Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: M, O: N, P: undefined, Q: undefined, R: undefined, S: N, T: undefined, U: undefined}
+Iteration 14:
+- Current node: S
+- Neighbors: P (cost: 4), T (cost: 3), U (cost: 5)
+- Update neighbor P's cost to 24 and previous node to S.
+- Update neighbor T's cost to 23 and previous node to S.
+- Update neighbor U's cost to 22 and previous node to S.
+Cost: {A: 0</t>
+  </si>
+  <si>
+    <t>Output: 10/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ D 0 0 1 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 4 0 0 4 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 2 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 2 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
+ Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Z 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; Z -&gt; O -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm. 
+1. Initialize the distance array and visited array:
+   - Set the distance of node A to 0, and the distance of all other nodes to infinity.
+   - Set all nodes as unvisited.
+2. While there are unvisited nodes:
+   - Choose the node with the minimum distance from the distance array (let's call it current node).
+   - Mark the current node as visited.
+3. For each neighbor of the current node:
+   - If the neighbor is not visited and the cost of travelling from the current node to the neighbor is less than its current distance:
+     - Update the neighbor's distance with the new lower cost.
+4. Repeat steps 2 and 3 until all nodes are visited or the current node is node T.
+5. The least cost path from node A to node T can be found by backtracking from node T using the updated distance array. Starting from node T, move to the neighbor with the minimum distance and continue until reaching node A.
+By applying this algorithm, we can find the least cost path from node A to node T.</t>
+  </si>
+  <si>
+    <t>Output: 1/5</t>
   </si>
 </sst>
 </file>
@@ -491,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,19 +645,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_4/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_4/k_0.xlsx
@@ -33,242 +33,142 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node J?
-   A B C D E F G H I J K L M N O P Q R S
- A 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- E 0 0 0 1 0 3 2 0 0 0 0 0 0 0 0 0 0 0 3
- F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 4
- I 0 0 0 0 0 0 0 1 0 4 5 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- R 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- S 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 5 4 0 0 0 0 0 0 0 4
+ B 5 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 5 0 0 0 0 0 0 1
+ D 0 0 5 0 5 0 2 0 0 0 0
+ E 0 0 0 5 0 2 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 2 0 0 0 3 0 0 0
+ H 0 0 0 0 0 0 3 0 2 0 0
+ I 0 0 0 0 0 0 0 2 0 4 0
+ J 0 0 0 0 0 0 0 0 4 0 0
+ K 4 0 1 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, you can use Dijkstra's algorithm. Here are the steps:
-1. Initialize a list of distances for each node, starting with infinity for all nodes except A, which is 0. Initialize an empty list of visited nodes.
-2. While J is not in the visited nodes:
-   a. Find the node with the smallest distance from the list of distances that is not in the visited nodes.
-   b. Mark this node as visited.
-   c. For each adjacent node to the current node that is not in the visited nodes, calculate the new distance as the sum of the current distance to the node and the cost of travelling between the two nodes.
-   d. If this new distance is smaller than the current distance for the adjacent node, update the distance.
-3. Once J is in the visited nodes, backtrack from J to A using the distances and the adjacency matrix to find the least cost path.
-Using this algorithm, the least cost path from node A to node J is: A -&gt; C -&gt; D -&gt; E -&gt; J, with a total cost of 9.</t>
+    <t>A -&gt; C -&gt; D -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is as follows:
+A - C - H - I - J</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 3/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 4 1 0 0 0 0 0 0 0 0 2
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 5 0 5 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 3 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- U 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+    <t>2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 4 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0
+ E 0 0 0 4 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 2 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ R 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ U 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; I -&gt; J -&gt; L -&gt; O -&gt; P -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node T, we can use the Dijkstra's algorithm.
-Here are the steps:
-1. Create a set of unvisited nodes and initialize it with all the nodes.
-2. Set the cost of node A to 0 and all other nodes to infinity.
-3. Set the previous node of node A to null and all other nodes to undefined.
-4. While there are still unvisited nodes:
-   a. Find the node with the minimum cost from the set of unvisited nodes.
-   b. Mark this node as visited by removing it from the set of unvisited nodes.
-   c. For each neighbor of the current node that is still in the set of unvisited nodes:
-      - Calculate the cost of reaching the neighbor from the current node.
-      - If this cost is less than the current cost of the neighbor, update the cost and set the previous node of the neighbor to the current node.
-5. Trace back the path from node T to node A using the previous nodes.
-Let's apply these steps to find the least cost path from node A to node T:
-Step 1: Create a set of unvisited nodes with all the nodes from A to U.
-Unvisited nodes: {A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U}
-Step 2: Set the cost of node A to 0 and all other nodes to infinity.
-Cost: {A: 0, B: inf, C: inf, D: inf, E: inf, F: inf, G: inf, H: inf, I: inf, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Step 3: Set the previous node of node A to null and all other nodes to undefined.
-Previous: {A: null, B: undefined, C: undefined, D: undefined, E: undefined, F: undefined, G: undefined, H: undefined, I: undefined, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Step 4: While there are still unvisited nodes, find the node with the minimum cost.
-Iteration 1:
-- Current node: A
-- Neighbors: B (cost: 5)
-- Update neighbor B's cost to 5 and previous node to A.
-Cost: {A: 0, B: 5, C: inf, D: inf, E: inf, F: inf, G: inf, H: inf, I: inf, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: undefined, D: undefined, E: undefined, F: undefined, G: undefined, H: undefined, I: undefined, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 2:
-- Current node: B
-- Neighbors: C (cost: 4), E (cost: 2), I (cost: 1)
-- Update neighbor C's cost to 9 and previous node to B.
-- Update neighbor E's cost to 7 and previous node to B.
-- Update neighbor I's cost to 6 and previous node to B.
-Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: inf, G: inf, H: inf, I: 6, J: inf, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: undefined, E: B, F: undefined, G: undefined, H: undefined, I: B, J: undefined, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 3:
-- Current node: I
-- Neighbors: J (cost: 4)
-- Update neighbor J's cost to 10 and previous node to I.
-Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: inf, G: inf, H: inf, I: 6, J: 10, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: undefined, E: B, F: undefined, G: undefined, H: undefined, I: B, J: I, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 4:
-- Current node: E
-- Neighbors: F (cost: 4), J (cost: 1)
-- Update neighbor J's cost to 8 and previous node to E.
-Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 11, G: inf, H: inf, I: 6, J: 8, K: inf, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: undefined, E: B, F: E, G: undefined, H: undefined, I: B, J: E, K: undefined, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 5:
-- Current node: J
-- Neighbors: F (cost: 1), K (cost: 4)
-- Update neighbor F's cost to 9 and previous node to J.
-Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 9, G: inf, H: inf, I: 6, J: 8, K: 12, L: inf, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: undefined, E: B, F: J, G: undefined, H: undefined, I: B, J: E, K: J, L: undefined, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 6:
-- Current node: F
-- Neighbors: G (cost: 4), L (cost: 5)
-- Update neighbor G's cost to 13 and previous node to F.
-- Update neighbor L's cost to 14 and previous node to F.
-Cost: {A: 0, B: 5, C: 9, D: inf, E: 7, F: 9, G: 13, H: inf, I: 6, J: 8, K: 12, L: 14, M: inf, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: undefined, E: B, F: J, G: F, H: undefined, I: B, J: E, K: J, L: F, M: undefined, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 7:
-- Current node: G
-- Neighbors: D (cost: 5), H (cost: 5), M (cost: 2)
-- Update neighbor D's cost to 18 and previous node to G.
-- Update neighbor H's cost to 14 and previous node to G.
-- Update neighbor M's cost to 15 and previous node to G.
-Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 8:
-- Current node: I
-- Neighbors: J (cost: 4)
-- No updates since the current cost of neighbor J is still less than the calculated cost.
-Iteration 9:
-- Current node: J
-- Neighbors: F (cost: 1), K (cost: 4)
-- No updates since the current cost of neighbor F is still less than the calculated cost.
-Iteration 10:
-- Current node: K
-- Neighbors: J (cost: 4)
-- No updates since the current cost of neighbor J is still less than the calculated cost.
-Iteration 11:
-- Current node: L
-- Neighbors: K (cost: 5)
-- Update neighbor K's cost to 19 and previous node to L.
-Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: inf, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: undefined, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 12:
-- Current node: M
-- Neighbors: N (cost: 2)
-- Update neighbor N's cost to 17 and previous node to M.
-Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: 17, O: inf, P: inf, Q: inf, R: inf, S: inf, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: M, O: undefined, P: undefined, Q: undefined, R: undefined, S: undefined, T: undefined, U: undefined}
-Iteration 13:
-- Current node: N
-- Neighbors: O (cost: 5), S (cost: 5)
-- Update neighbor O's cost to 22 and previous node to N.
-- Update neighbor S's cost to 20 and previous node to N.
-Cost: {A: 0, B: 5, C: 9, D: 18, E: 7, F: 9, G: 13, H: 14, I: 6, J: 8, K: 12, L: 14, M: 15, N: 17, O: 22, P: inf, Q: inf, R: inf, S: 20, T: inf, U: inf}
-Previous: {A: null, B: A, C: B, D: G, E: B, F: J, G: F, H: G, I: B, J: E, K: J, L: F, M: G, N: M, O: N, P: undefined, Q: undefined, R: undefined, S: N, T: undefined, U: undefined}
-Iteration 14:
-- Current node: S
-- Neighbors: P (cost: 4), T (cost: 3), U (cost: 5)
-- Update neighbor P's cost to 24 and previous node to S.
-- Update neighbor T's cost to 23 and previous node to S.
-- Update neighbor U's cost to 22 and previous node to S.
-Cost: {A: 0</t>
-  </si>
-  <si>
-    <t>Output: 10/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- D 0 0 1 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 4 0 0 4 5 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 2 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 2 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
- Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- Z 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+    <t>A -&gt; C -&gt; D -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To determine the least cost path from node A to node T, we can use Dijkstra's algorithm. 
+1. Initialize a list of distances and a list of visited nodes. Set the distance of node A to 0 and all other nodes to infinity. 
+2. Repeat the following steps until all nodes have been visited: 
+   a. Choose the node with the smallest distance among the unvisited nodes and mark it as visited.
+   b. Update the distances of the neighboring nodes. If the distance to a neighbor through the current node is smaller than its current distance, update it.
+3. Once all nodes have been visited, backtrack from node T to node A using the updated distances to determine the least cost path.
+Using Dijkstra's algorithm, the distances for each node are as follows:
+A - 0
+B - 2
+C - 2
+D - 4
+E - 7
+F - 10
+G - 8
+H - 9
+I - 5
+J - 6
+K - 10
+L - 9
+M - 8
+N - 8
+O - 6
+P - 10
+Q - 12
+R - 9
+S - 8
+T - 12
+U - 13
+V - 12
+W - 12
+The least cost path from node A to node T is:
+A - B - C - D - H - I - J - K - O - T</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 5 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 1 4 3 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0
+ V 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ W 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0
     </t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; Z -&gt; O -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm. 
-1. Initialize the distance array and visited array:
-   - Set the distance of node A to 0, and the distance of all other nodes to infinity.
-   - Set all nodes as unvisited.
-2. While there are unvisited nodes:
-   - Choose the node with the minimum distance from the distance array (let's call it current node).
-   - Mark the current node as visited.
-3. For each neighbor of the current node:
-   - If the neighbor is not visited and the cost of travelling from the current node to the neighbor is less than its current distance:
-     - Update the neighbor's distance with the new lower cost.
-4. Repeat steps 2 and 3 until all nodes are visited or the current node is node T.
-5. The least cost path from node A to node T can be found by backtracking from node T using the updated distance array. Starting from node T, move to the neighbor with the minimum distance and continue until reaching node A.
-By applying this algorithm, we can find the least cost path from node A to node T.</t>
-  </si>
-  <si>
-    <t>Output: 1/5</t>
+    <t>A -&gt; E -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node T is: A E F S T</t>
+  </si>
+  <si>
+    <t>2/4</t>
   </si>
 </sst>
 </file>
